--- a/raw/project_list_all.xlsx
+++ b/raw/project_list_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb_LOV_orga/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4214/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAB2D3D-0285-634C-8FED-D1CE6374CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1048E5D-BE39-4C46-90FF-F18A8790D178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="28780" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$K$2359</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -9233,7 +9236,7 @@
   <dimension ref="A1:K2359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
